--- a/biology/Zoologie/Cunnawarra_cassisi/Cunnawarra_cassisi.xlsx
+++ b/biology/Zoologie/Cunnawarra_cassisi/Cunnawarra_cassisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cunnawarra cassisi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cunnawarra cassisi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,5 mm de long sur 2,3 mm de large et l'abdomen 2,8 mm de long sur 2,3 mm de large. La carapace du mâle paratype mesure 3,9 mm de long sur 2,5 mm de large et l'abdomen 3,2 mm de long sur 2,3 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 3,5 mm de long sur 2,3 mm de large et l'abdomen 2,8 mm de long sur 2,3 mm de large. La carapace du mâle paratype mesure 3,9 mm de long sur 2,5 mm de large et l'abdomen 3,2 mm de long sur 2,3 mm de large.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerasimos Cassis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gerasimos Cassis.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Davies, 1998 : A revision of the Australian metaltellines (Araneae: Amaurobioidea: Amphinectidae: Metaltellinae). Invertebrate Taxonomy, vol. 12, no 2, p. 211-243.</t>
         </is>
